--- a/NEW HR/DONE/CREUS, ROSENDA.xlsx
+++ b/NEW HR/DONE/CREUS, ROSENDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8F2E7F-E35B-42A7-A7B8-A15B78270C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EFD3F-46E6-4CE2-BEDA-1FBFC3BB035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -675,6 +675,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -687,20 +696,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3342,10 +3342,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="2592" topLeftCell="A52" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="2592" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3375,14 +3375,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3393,16 +3393,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <v>40728</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3415,14 +3415,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3448,18 +3448,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3506,7 +3506,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>50.042000000000002</v>
+        <v>60.042000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3516,7 +3516,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>65.042000000000002</v>
+        <v>75.042000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4936,15 +4936,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44985</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4952,15 +4956,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45016</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4968,15 +4976,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45046</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4984,15 +4996,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45077</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -5000,15 +5016,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45107</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5016,15 +5036,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45138</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5032,15 +5056,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45169</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5048,15 +5076,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45199</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5064,7 +5096,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45230</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5080,7 +5114,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45260</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5096,7 +5132,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45291</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5865,17 +5903,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5910,7 +5948,7 @@
   </sheetPr>
   <dimension ref="A2:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="3516" topLeftCell="A10"/>
       <selection activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
@@ -5944,14 +5982,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5965,14 +6003,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5985,16 +6023,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6020,18 +6058,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
